--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\License-Plate-Recognition\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="dataset" sheetId="1" r:id="rId4"/>
+    <sheet name="dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -16,74 +24,88 @@
     <t>images/image1.jpg</t>
   </si>
   <si>
-    <t>ঢাকা মেট্রো-গ', '১৫-০৫৬৮'</t>
-  </si>
-  <si>
     <t>images/image2.jpg</t>
   </si>
   <si>
-    <t>ঢাকা মেট্রো-ঘ', '২১-১৫৮১'</t>
-  </si>
-  <si>
     <t>images/image3.jpg</t>
   </si>
   <si>
-    <t>ঢাকা মেট্রো-গ', '১৯-০৪৭৬'</t>
-  </si>
-  <si>
     <t>images/image4.jpg</t>
   </si>
   <si>
-    <t>ঢাকা মেট্রো-খ', '১১-৮০০৫'</t>
-  </si>
-  <si>
     <t>images/image5.jpg</t>
   </si>
   <si>
-    <t>ঢাকা মেট্রো-গ', '৩৫-৯৪২৫'</t>
-  </si>
-  <si>
     <t>images/image6.jpg</t>
   </si>
   <si>
-    <t>ঢাকা মেট্রো-গ', '১৫-৫৭৫৩'</t>
-  </si>
-  <si>
     <t>images/image7.jpg</t>
   </si>
   <si>
-    <t>ঢাকা মেট্রো-ঘ', '১৮-১৫৭১'</t>
-  </si>
-  <si>
     <t>images/image8.jpg</t>
   </si>
   <si>
     <t>images/image9.jpg</t>
   </si>
   <si>
-    <t>ঢাকা মেট্রো-গ', '২৩-৬৬৩৩'</t>
-  </si>
-  <si>
-    <t>images/image10.jpg</t>
-  </si>
-  <si>
-    <t>ঢাকা মেট্রো-গ', '৩৬-৭৭১৯'</t>
+    <t>image_file_name</t>
+  </si>
+  <si>
+    <t>ground_truth_characters</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '১৫-০৫৬৮')</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-ঘ', '২১-১৫৮১')</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '১৯-০৪৭৬')</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-খ', '১১-৮০০৫')</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '৩৫-৯৪২৫')</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '১৫-৫৭৫৩')</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-ঘ', '১৮-১৫৭১')</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '২৩-৬৬৩৩')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -92,39 +114,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -314,107 +343,117 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="2" width="26.25"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="1"/>
+    <row r="11" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="15" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,159 +1,266 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\License-Plate-Recognition\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
-  </bookViews>
   <sheets>
-    <sheet name="dataset" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="dataset" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+  <si>
+    <t>image_file_name</t>
+  </si>
+  <si>
+    <t>ground_truth_characters</t>
+  </si>
   <si>
     <t>images/image1.jpg</t>
   </si>
   <si>
+    <t>('ঢাকা মেট্রো-গ', '১৫-০৫৬৮')</t>
+  </si>
+  <si>
     <t>images/image2.jpg</t>
   </si>
   <si>
+    <t>('ঢাকা মেট্রো-ঘ', '২১-১৫৮১')</t>
+  </si>
+  <si>
     <t>images/image3.jpg</t>
   </si>
   <si>
+    <t>('ঢাকা মেট্রো-গ', '১৯-০৪৭৬')</t>
+  </si>
+  <si>
     <t>images/image4.jpg</t>
   </si>
   <si>
+    <t>('ঢাকা মেট্রো-খ', '১১-৮০০৫')</t>
+  </si>
+  <si>
     <t>images/image5.jpg</t>
   </si>
   <si>
+    <t>('ঢাকা মেট্রো-গ', '৩৫-৯৪২৫')</t>
+  </si>
+  <si>
     <t>images/image6.jpg</t>
   </si>
   <si>
+    <t>('ঢাকা মেট্রো-গ', '১৫-৫৭৫৩')</t>
+  </si>
+  <si>
     <t>images/image7.jpg</t>
   </si>
   <si>
+    <t>('ঢাকা মেট্রো-ঘ', '১৮-১৫৭১')</t>
+  </si>
+  <si>
     <t>images/image8.jpg</t>
   </si>
   <si>
     <t>images/image9.jpg</t>
   </si>
   <si>
-    <t>image_file_name</t>
-  </si>
-  <si>
-    <t>ground_truth_characters</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '১৫-০৫৬৮')</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-ঘ', '২১-১৫৮১')</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '১৯-০৪৭৬')</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-খ', '১১-৮০০৫')</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '৩৫-৯৪২৫')</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '১৫-৫৭৫৩')</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-ঘ', '১৮-১৫৭১')</t>
-  </si>
-  <si>
     <t>('ঢাকা মেট্রো-গ', '২৩-৬৬৩৩')</t>
+  </si>
+  <si>
+    <t>images/image10.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '৩৬-৭৭১৯')</t>
+  </si>
+  <si>
+    <t>images/image11.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '৩৭-৫১৬৮')</t>
+  </si>
+  <si>
+    <t>images/image12.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-ঘ', '১৫-৭০৭৩')</t>
+  </si>
+  <si>
+    <t>images/image13.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '৩২-৪২৫৮')</t>
+  </si>
+  <si>
+    <t>images/image14.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-চ', '৫৩৯৩৪৬')</t>
+  </si>
+  <si>
+    <t>images/image15.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '৩২-৭৬১১')</t>
+  </si>
+  <si>
+    <t>images/image16.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '৩১-৩৭৫৬')</t>
+  </si>
+  <si>
+    <t>images/image17.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-চ', '১৩-৪৩২৮')</t>
+  </si>
+  <si>
+    <t>images/image18.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-ঘ', '১৩-৫৯৩৯')</t>
+  </si>
+  <si>
+    <t>images/image19.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-ঘ', '২১-১৫১৬')</t>
+  </si>
+  <si>
+    <t>images/image20.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '৪৭-০১৮৯')</t>
+  </si>
+  <si>
+    <t>images/image21.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-ঘ', '১৮-৪৩৬২')</t>
+  </si>
+  <si>
+    <t>images/image22.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '৪৩-১৮০৬')</t>
+  </si>
+  <si>
+    <t>images/image23.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '৩৯-৪০৬৭')</t>
+  </si>
+  <si>
+    <t>images/image24.jpg</t>
+  </si>
+  <si>
+    <t>images/image25.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '২৫-৮৬৬১')</t>
+  </si>
+  <si>
+    <t>images/image26.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '২০-৯৩৯৩')</t>
+  </si>
+  <si>
+    <t>images/image27.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ', '৩৭-৯৬৮৯')</t>
+  </si>
+  <si>
+    <t>images/image28.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-ঘ', '১৫-৮৩০৮')</t>
+  </si>
+  <si>
+    <t>images/image29.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-চ', '১৫-৪০০৬')</t>
+  </si>
+  <si>
+    <t>images/image30.jpg</t>
+  </si>
+  <si>
+    <t>('ঢাকা মেট্রো-গ'', '২৮-২৬৬৫')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -343,117 +450,273 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="18.0"/>
+    <col customWidth="1" min="2" max="2" width="26.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="15" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\License-Plate-Recognition\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDEED42-0AEC-4093-8171-8D193323C951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="5490" yWindow="4140" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="dataset" sheetId="1" r:id="rId4"/>
+    <sheet name="dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>image_file_name</t>
   </si>
@@ -68,199 +77,74 @@
   </si>
   <si>
     <t>('ঢাকা মেট্রো-গ', '২৩-৬৬৩৩')</t>
-  </si>
-  <si>
-    <t>images/image10.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '৩৬-৭৭১৯')</t>
-  </si>
-  <si>
-    <t>images/image11.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '৩৭-৫১৬৮')</t>
-  </si>
-  <si>
-    <t>images/image12.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-ঘ', '১৫-৭০৭৩')</t>
-  </si>
-  <si>
-    <t>images/image13.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '৩২-৪২৫৮')</t>
-  </si>
-  <si>
-    <t>images/image14.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-চ', '৫৩৯৩৪৬')</t>
-  </si>
-  <si>
-    <t>images/image15.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '৩২-৭৬১১')</t>
-  </si>
-  <si>
-    <t>images/image16.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '৩১-৩৭৫৬')</t>
-  </si>
-  <si>
-    <t>images/image17.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-চ', '১৩-৪৩২৮')</t>
-  </si>
-  <si>
-    <t>images/image18.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-ঘ', '১৩-৫৯৩৯')</t>
-  </si>
-  <si>
-    <t>images/image19.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-ঘ', '২১-১৫১৬')</t>
-  </si>
-  <si>
-    <t>images/image20.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '৪৭-০১৮৯')</t>
-  </si>
-  <si>
-    <t>images/image21.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-ঘ', '১৮-৪৩৬২')</t>
-  </si>
-  <si>
-    <t>images/image22.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '৪৩-১৮০৬')</t>
-  </si>
-  <si>
-    <t>images/image23.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '৩৯-৪০৬৭')</t>
-  </si>
-  <si>
-    <t>images/image24.jpg</t>
-  </si>
-  <si>
-    <t>images/image25.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '২৫-৮৬৬১')</t>
-  </si>
-  <si>
-    <t>images/image26.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '২০-৯৩৯৩')</t>
-  </si>
-  <si>
-    <t>images/image27.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ', '৩৭-৯৬৮৯')</t>
-  </si>
-  <si>
-    <t>images/image28.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-ঘ', '১৫-৮৩০৮')</t>
-  </si>
-  <si>
-    <t>images/image29.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-চ', '১৫-৪০০৬')</t>
-  </si>
-  <si>
-    <t>images/image30.jpg</t>
-  </si>
-  <si>
-    <t>('ঢাকা মেট্রো-গ'', '২৮-২৬৬৫')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -450,24 +334,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="2" width="26.25"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -483,7 +372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -491,7 +380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -499,7 +388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -507,7 +396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -515,7 +404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -523,7 +412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -531,7 +420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -539,7 +428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -547,176 +436,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2"/>
+    <row r="17" x14ac:dyDescent="0.2"/>
+    <row r="18" x14ac:dyDescent="0.2"/>
+    <row r="19" x14ac:dyDescent="0.2"/>
+    <row r="20" x14ac:dyDescent="0.2"/>
+    <row r="21" x14ac:dyDescent="0.2"/>
+    <row r="22" x14ac:dyDescent="0.2"/>
+    <row r="23" x14ac:dyDescent="0.2"/>
+    <row r="24" x14ac:dyDescent="0.2"/>
+    <row r="25" x14ac:dyDescent="0.2"/>
+    <row r="26" x14ac:dyDescent="0.2"/>
+    <row r="27" x14ac:dyDescent="0.2"/>
+    <row r="28" x14ac:dyDescent="0.2"/>
+    <row r="29" x14ac:dyDescent="0.2"/>
+    <row r="30" x14ac:dyDescent="0.2"/>
+    <row r="31" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>